--- a/ucretsiz-wifi-kullanim-sayilari/ucretsiz-wifi-kullanim-sayilari.xlsx
+++ b/ucretsiz-wifi-kullanim-sayilari/ucretsiz-wifi-kullanim-sayilari.xlsx
@@ -438,404 +438,409 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>baslangic_tarihi</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>bitis_tarihi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>android</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ios</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>linux</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>toplam</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="C2" t="n">
         <v>1528</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>320</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>108</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1958</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>44197</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D3" t="n">
+        <v>360</v>
+      </c>
+      <c r="E3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2196</v>
+      </c>
+      <c r="D4" t="n">
+        <v>463</v>
+      </c>
+      <c r="E4" t="n">
+        <v>171</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1861</v>
-      </c>
-      <c r="C3" t="n">
-        <v>360</v>
-      </c>
-      <c r="D3" t="n">
-        <v>88</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="H4" t="n">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1882</v>
+      </c>
+      <c r="D5" t="n">
+        <v>385</v>
+      </c>
+      <c r="E5" t="n">
+        <v>126</v>
+      </c>
+      <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2311</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2196</v>
-      </c>
-      <c r="C4" t="n">
-        <v>463</v>
-      </c>
-      <c r="D4" t="n">
-        <v>171</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2837</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1882</v>
-      </c>
-      <c r="C5" t="n">
-        <v>385</v>
-      </c>
-      <c r="D5" t="n">
-        <v>126</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>2395</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>44287</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1813</v>
+      </c>
+      <c r="D6" t="n">
+        <v>358</v>
+      </c>
+      <c r="E6" t="n">
+        <v>87</v>
+      </c>
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>1813</v>
-      </c>
-      <c r="C6" t="n">
-        <v>358</v>
-      </c>
-      <c r="D6" t="n">
-        <v>87</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>2262</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>44317</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="C7" t="n">
         <v>2692</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>565</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>176</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>3435</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>44348</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="C8" t="n">
         <v>3204</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>744</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>141</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>4091</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>44378</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="C9" t="n">
         <v>2469</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>685</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>122</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3277</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>44409</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="C10" t="n">
         <v>3160</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>600</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>112</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>3874</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>44440</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C11" t="n">
         <v>4149</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>805</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>689</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>5644</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>44470</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="A12" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="C12" t="n">
         <v>4087</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>738</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>854</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>5680</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>44501</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="A13" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="C13" t="n">
         <v>3871</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>691</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>668</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>5232</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>44531</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="A14" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C14" t="n">
         <v>3568</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>637</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>573</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>4779</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>44562</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="A15" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="C15" t="n">
         <v>3331</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>526</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>805</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>4664</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>44593</v>
       </c>
     </row>
   </sheetData>

--- a/ucretsiz-wifi-kullanim-sayilari/ucretsiz-wifi-kullanim-sayilari.xlsx
+++ b/ucretsiz-wifi-kullanim-sayilari/ucretsiz-wifi-kullanim-sayilari.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,406 +436,387 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>baslangic_tarihi</t>
+          <t>ay</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bitis_tarihi</t>
+          <t>android</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>ios</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ios</t>
+          <t>windows</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>windows</t>
+          <t>linux</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>linux</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>toplam</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>44227</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1528</v>
       </c>
       <c r="C2" t="n">
-        <v>1528</v>
+        <v>320</v>
       </c>
       <c r="D2" t="n">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1861</v>
+      </c>
+      <c r="C3" t="n">
+        <v>360</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44228</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>44255</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1861</v>
-      </c>
-      <c r="D3" t="n">
-        <v>360</v>
-      </c>
-      <c r="E3" t="n">
-        <v>88</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2196</v>
+      </c>
+      <c r="C4" t="n">
+        <v>463</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>385</v>
+      </c>
+      <c r="D5" t="n">
+        <v>126</v>
+      </c>
+      <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>44286</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2196</v>
-      </c>
-      <c r="D4" t="n">
-        <v>463</v>
-      </c>
-      <c r="E4" t="n">
-        <v>171</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1813</v>
+      </c>
+      <c r="C6" t="n">
+        <v>358</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2692</v>
+      </c>
+      <c r="C7" t="n">
+        <v>565</v>
+      </c>
+      <c r="D7" t="n">
+        <v>176</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>44316</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1882</v>
-      </c>
-      <c r="D5" t="n">
-        <v>385</v>
-      </c>
-      <c r="E5" t="n">
-        <v>126</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44317</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>44347</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1813</v>
-      </c>
-      <c r="D6" t="n">
-        <v>358</v>
-      </c>
-      <c r="E6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44348</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>44377</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2692</v>
-      </c>
-      <c r="D7" t="n">
-        <v>565</v>
-      </c>
-      <c r="E7" t="n">
-        <v>176</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>744</v>
+      </c>
+      <c r="D8" t="n">
+        <v>141</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C9" t="n">
+        <v>685</v>
+      </c>
+      <c r="D9" t="n">
+        <v>122</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44378</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>44408</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3204</v>
-      </c>
-      <c r="D8" t="n">
-        <v>744</v>
-      </c>
-      <c r="E8" t="n">
-        <v>141</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G9" t="n">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3160</v>
+      </c>
+      <c r="C10" t="n">
+        <v>600</v>
+      </c>
+      <c r="D10" t="n">
+        <v>112</v>
+      </c>
+      <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4091</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>44439</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2469</v>
-      </c>
-      <c r="D9" t="n">
-        <v>685</v>
-      </c>
-      <c r="E9" t="n">
-        <v>122</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>805</v>
+      </c>
+      <c r="D11" t="n">
+        <v>689</v>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>3277</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>44469</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3160</v>
-      </c>
-      <c r="D10" t="n">
-        <v>600</v>
-      </c>
-      <c r="E10" t="n">
-        <v>112</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4087</v>
+      </c>
+      <c r="C12" t="n">
+        <v>738</v>
+      </c>
+      <c r="D12" t="n">
+        <v>854</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3871</v>
+      </c>
+      <c r="C13" t="n">
+        <v>691</v>
+      </c>
+      <c r="D13" t="n">
+        <v>668</v>
+      </c>
+      <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3874</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44470</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>44500</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4149</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3568</v>
+      </c>
+      <c r="C14" t="n">
+        <v>637</v>
+      </c>
+      <c r="D14" t="n">
+        <v>573</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3331</v>
+      </c>
+      <c r="C15" t="n">
+        <v>526</v>
+      </c>
+      <c r="D15" t="n">
         <v>805</v>
       </c>
-      <c r="E11" t="n">
-        <v>689</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5644</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44501</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>44530</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4087</v>
-      </c>
-      <c r="D12" t="n">
-        <v>738</v>
-      </c>
-      <c r="E12" t="n">
-        <v>854</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5680</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>44561</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3871</v>
-      </c>
-      <c r="D13" t="n">
-        <v>691</v>
-      </c>
-      <c r="E13" t="n">
-        <v>668</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5232</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3568</v>
-      </c>
-      <c r="D14" t="n">
-        <v>637</v>
-      </c>
-      <c r="E14" t="n">
-        <v>573</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4779</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>44620</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3331</v>
-      </c>
-      <c r="D15" t="n">
-        <v>526</v>
-      </c>
-      <c r="E15" t="n">
-        <v>805</v>
-      </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
         <v>4664</v>
       </c>
     </row>
